--- a/Results/Verify_comm10000.xlsx
+++ b/Results/Verify_comm10000.xlsx
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.898791</v>
+        <v>0.960052</v>
       </c>
       <c r="C2" t="n">
-        <v>1.815064</v>
+        <v>1.530841</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
